--- a/arcadedata.xlsx
+++ b/arcadedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e7004b139bfa4376/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_3E4285ACBC4E2F4AAF92809DB4281E7FF873730B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD502F2-8BD6-4603-A229-5EC8C95B37E0}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_3E4285ACBC4E2F4AAF92809DB4281E7FF873730B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D33D8EF-DB45-4226-939D-AA99CCF51516}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="39900" yWindow="2190" windowWidth="14445" windowHeight="8205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="neri-jolien" sheetId="2" r:id="rId1"/>
@@ -407,7 +407,9 @@
   </sheetPr>
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -460,11 +462,11 @@
         <v>7</v>
       </c>
       <c r="G2" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" ref="H2:H11" si="0">I2-G2</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2">
         <v>8</v>
@@ -488,11 +490,11 @@
         <v>8</v>
       </c>
       <c r="G3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="2">
         <v>8</v>
@@ -516,11 +518,11 @@
         <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <v>9</v>
@@ -602,11 +604,11 @@
         <v>7</v>
       </c>
       <c r="G7" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <v>9</v>
@@ -630,11 +632,11 @@
         <v>7</v>
       </c>
       <c r="G8" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>8</v>
@@ -658,11 +660,11 @@
         <v>8</v>
       </c>
       <c r="G9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>8</v>
@@ -688,11 +690,11 @@
         <v>9</v>
       </c>
       <c r="G10" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
         <v>8</v>
@@ -716,11 +718,11 @@
         <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <v>6</v>
@@ -771,11 +773,11 @@
         <v>8</v>
       </c>
       <c r="G13" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ref="H13:H20" si="1">I13-G13</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13" s="5">
         <v>6</v>
@@ -801,11 +803,11 @@
         <v>7</v>
       </c>
       <c r="G14" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
         <v>9</v>
@@ -829,11 +831,11 @@
         <v>8</v>
       </c>
       <c r="G15" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" s="7">
         <v>9</v>
@@ -857,11 +859,11 @@
         <v>8</v>
       </c>
       <c r="G16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
         <v>8</v>
@@ -885,11 +887,11 @@
         <v>7</v>
       </c>
       <c r="G17" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
         <v>8</v>
@@ -915,11 +917,11 @@
         <v>7</v>
       </c>
       <c r="G18" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" s="8">
         <v>8</v>
@@ -943,11 +945,11 @@
         <v>7</v>
       </c>
       <c r="G19" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I19" s="8">
         <v>8</v>
@@ -971,11 +973,11 @@
         <v>9</v>
       </c>
       <c r="G20" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I20" s="8">
         <v>9</v>
@@ -999,10 +1001,10 @@
         <v>8</v>
       </c>
       <c r="G21" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="8">
         <v>4</v>
@@ -1028,11 +1030,11 @@
         <v>9</v>
       </c>
       <c r="G22" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" ref="H22:H26" si="2">I22-G22</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="9">
         <v>8</v>
@@ -1056,11 +1058,11 @@
         <v>7</v>
       </c>
       <c r="G23" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I23" s="9">
         <v>9</v>
@@ -1084,11 +1086,11 @@
         <v>7</v>
       </c>
       <c r="G24" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="9">
         <v>7</v>
@@ -1112,11 +1114,11 @@
         <v>7</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="9">
         <v>8</v>
@@ -1142,11 +1144,11 @@
         <v>9</v>
       </c>
       <c r="G26" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26" s="10">
         <v>6</v>
@@ -1170,10 +1172,10 @@
         <v>7</v>
       </c>
       <c r="G27" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="10">
         <v>1</v>
@@ -1197,11 +1199,11 @@
         <v>7</v>
       </c>
       <c r="G28" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" ref="H28:H40" si="3">I28-G28</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I28" s="10">
         <v>8</v>
@@ -1255,11 +1257,11 @@
         <v>7</v>
       </c>
       <c r="G30" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <v>9</v>
@@ -1283,11 +1285,11 @@
         <v>8</v>
       </c>
       <c r="G31" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <v>9</v>
@@ -1311,11 +1313,11 @@
         <v>7</v>
       </c>
       <c r="G32" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I32" s="11">
         <v>9</v>
@@ -1339,11 +1341,11 @@
         <v>7</v>
       </c>
       <c r="G33" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="11">
         <v>8</v>
@@ -1369,11 +1371,11 @@
         <v>7</v>
       </c>
       <c r="G34" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I34" s="3">
         <v>8</v>
@@ -1397,11 +1399,11 @@
         <v>8</v>
       </c>
       <c r="G35" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>6</v>
@@ -1425,11 +1427,11 @@
         <v>7</v>
       </c>
       <c r="G36" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
         <v>8</v>
@@ -1453,11 +1455,11 @@
         <v>8</v>
       </c>
       <c r="G37" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3">
         <v>6</v>
@@ -1483,11 +1485,11 @@
         <v>8</v>
       </c>
       <c r="G38" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" s="8">
         <v>8</v>
@@ -1511,11 +1513,11 @@
         <v>7</v>
       </c>
       <c r="G39" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" s="8">
         <v>7</v>
@@ -1539,11 +1541,11 @@
         <v>7</v>
       </c>
       <c r="G40" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="8">
         <v>7</v>
@@ -1567,10 +1569,10 @@
         <v>9</v>
       </c>
       <c r="G41" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="8">
         <v>4</v>
@@ -1578,6 +1580,9 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
@@ -1585,9 +1590,6 @@
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:D41">
     <cfRule type="colorScale" priority="1">
